--- a/DioDocs/ExcelTemplateReport/Templates/SimpleInvoiceJP_可変明細_単一シート.xlsx
+++ b/DioDocs/ExcelTemplateReport/Templates/SimpleInvoiceJP_可変明細_単一シート.xlsx
@@ -5,19 +5,16 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinori\Downloads\DioDocsExcelReport2-master\DioDocsExcelReport2-master\DioDocsExcelReport2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinori\source\github\Self-Learning\DioDocs\ExcelTemplateReport\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A7522C8-005F-452F-9EDE-B3CF8B697850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF0BCEB-B54B-400A-944F-B9134247EA22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3444" yWindow="912" windowWidth="31596" windowHeight="22140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11988" yWindow="4248" windowWidth="19752" windowHeight="18984" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="請求書" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">請求書!$A$1:$I$24</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>伝票番号</t>
     <rPh sb="0" eb="2">
@@ -285,6 +282,10 @@
   </si>
   <si>
     <t>{{ds.customer.companyname(R=A1:I24)}}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>{{(C=A6, Pb=true)}}</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -319,41 +320,41 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
+      <name val="IPA P明朝"/>
+      <family val="1"/>
       <charset val="128"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
+      <b/>
+      <sz val="11"/>
+      <name val="IPA P明朝"/>
+      <family val="1"/>
       <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="9"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
+      <name val="IPA P明朝"/>
+      <family val="1"/>
       <charset val="128"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
+      <sz val="20"/>
+      <name val="IPA P明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="IPA P明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="IPA P明朝"/>
+      <family val="1"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -593,16 +594,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="22" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -611,10 +605,53 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="8" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -643,42 +680,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1019,13 +1020,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J21"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="10.77734375" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.77734375" style="1" customWidth="1"/>
@@ -1037,63 +1041,67 @@
     <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="H1" s="3" t="s">
+    <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="4">
+      <c r="I1" s="3">
         <f ca="1">TODAY()</f>
-        <v>44368</v>
-      </c>
-      <c r="J1" s="5"/>
+        <v>44371</v>
+      </c>
+      <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="H2" s="12" t="s">
+    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="13" t="str">
+      <c r="H3" s="6" t="str">
         <f ca="1">TEXT(TODAY(),"DD")&amp;"-"&amp;TEXT(NOW(),"HMM")</f>
-        <v>21-1653</v>
-      </c>
-      <c r="I3" s="14" t="s">
+        <v>24-1723</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
     </row>
-    <row r="5" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="J5" s="6"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
@@ -1104,23 +1112,23 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G9" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G10" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G11" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="F12" s="2"/>
+    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="9"/>
       <c r="G12" s="1" t="s">
         <v>15</v>
       </c>
@@ -1128,8 +1136,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="F13" s="2"/>
+    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F13" s="9"/>
       <c r="G13" s="1" t="s">
         <v>23</v>
       </c>
@@ -1137,8 +1145,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="F14" s="2"/>
+    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F14" s="9"/>
       <c r="G14" s="1" t="s">
         <v>14</v>
       </c>
@@ -1146,127 +1154,210 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="35" t="s">
+    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="12" t="s">
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H17" s="28" t="s">
+      <c r="H17" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I17" s="28"/>
+      <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="23" t="s">
+    <row r="18" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="21" t="s">
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="33" t="s">
+      <c r="F18" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="20" t="s">
+      <c r="G18" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="H18" s="29" t="s">
+      <c r="H18" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="I18" s="30"/>
+      <c r="I18" s="19"/>
     </row>
-    <row r="19" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="17" t="s">
+    <row r="19" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="32"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="C20" s="26" t="s">
+    <row r="20" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="7" t="s">
+      <c r="E20" s="11"/>
+      <c r="F20" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="7" t="s">
+      <c r="G20" s="11"/>
+      <c r="H20" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="8"/>
+      <c r="I20" s="11"/>
     </row>
-    <row r="21" spans="1:9" ht="19.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="C21" s="27"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="10" t="s">
+    <row r="21" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="16"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="11" t="s">
+      <c r="F21" s="12"/>
+      <c r="G21" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H21" s="9"/>
-      <c r="I21" s="10" t="s">
+      <c r="H21" s="12"/>
+      <c r="I21" s="13" t="s">
         <v>38</v>
       </c>
     </row>
+    <row r="22" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D4:G5"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A18:D18"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="H18:I19"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="A17:D17"/>
-    <mergeCell ref="D4:G5"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A18:D18"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="74" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <rowBreaks count="2" manualBreakCount="2">
-    <brk id="50" max="8" man="1"/>
-    <brk id="100" max="8" man="1"/>
-  </rowBreaks>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="9" max="53" man="1"/>
-  </colBreaks>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>AssetEditForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="TemplateFile" ma:contentTypeID="0x010100F6E1CA76AAD4564AAF106FC3CFA868360400186944AA932D8046A3B88E9B37BEBDF5" ma:contentTypeVersion="57" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="99516f8994b63f46a279aa564b61ee37">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1119c2e5-8fb9-4d5f-baf1-202c530f2c34" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ccc0999b57010467b6aff3ba0e15941" ns2:_="">
     <xsd:import namespace="1119c2e5-8fb9-4d5f-baf1-202c530f2c34"/>
@@ -2304,15 +2395,6 @@
     <xs:element name="TermId" type="xs:string"/>
   </xs:schema>
 </ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>AssetEditForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2454,6 +2536,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9659279B-CA79-44FF-BF15-83F6AAD0C4E7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE70CA04-6118-4D7D-973A-6229EC59A34E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2467,14 +2557,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9659279B-CA79-44FF-BF15-83F6AAD0C4E7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
